--- a/medicine/Enfance/William_Mayne/William_Mayne.xlsx
+++ b/medicine/Enfance/William_Mayne/William_Mayne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Mayne (né le 16 mars 1928 et mort le 24 mars 2010)  est un romancier britannique de littérature d'enfance et de jeunesse.
 </t>
@@ -511,14 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Kingston-upon-Hull. Il a étudié pendant cinq ans à la maîtrise de la cathédrale de Canterbury, ce qui lui servira d'inspiration pour sa série de romans autour d'un chœur d'enfants.
-Il commence à publier dans les années 1950. Ses romans obtiennent un grand succès auprès des critiques, qui le considèrent comme un des auteurs les plus originaux de littérature de jeunesse[1]. Son roman A Swarm in May (1955) est adapté au cinéma par le Children's Film Unit en 1983[2], et Earthfasts (1966) est devenu une série télévisée en cinq épisodes en 1994[3].
-Condamnation
-Il avait été accusé d'agressions en 1973 et 1999, mais ce n'est qu'en 2004 qu'il est jugé à la suite de la plainte d'une femme qu'il avait connue lorsqu'elle avait huit ans[4]. Accusé de viol sur des mineures, il reconnaît des agressions sexuelles sur onze petites filles à la faveur d'une négociation de peine qui abandonne l'incrimination de viol[5]. Il écope d'une peine de deux ans et demi de prison et d'une inscription dans le registre des criminels sexuels[6].
-Mort
-Il est retrouvé mort de causes naturelles à son domicile en mai 2010[4]. Dans un texte d'hommage, un de ses amis, le critique littéraire Brian Alderson, traite de « vindicatifs ou lâches » les éditeurs qui ont refusé de publier ses œuvres après sa condamnation pour « un comportement violent envers des jeunes fillettes il y a quelque trente ans ou plus dans le passé »[7]. Les éditions Faber and Faber rééditent six de ses romans en impression à la demande.
+Il commence à publier dans les années 1950. Ses romans obtiennent un grand succès auprès des critiques, qui le considèrent comme un des auteurs les plus originaux de littérature de jeunesse. Son roman A Swarm in May (1955) est adapté au cinéma par le Children's Film Unit en 1983, et Earthfasts (1966) est devenu une série télévisée en cinq épisodes en 1994.
 </t>
         </is>
       </c>
@@ -544,17 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Récompenses</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1957 : Médaille Carnegie pour A Glass Rope
-1978 : (international) « Honor List »[8], de l' IBBY, catégorie Auteur, pour A Year and a Day 
-1983 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne[9] (Italie) pour Périlleuse aventure d'une chatte tigrée, coréalisé avec Nicola Bayley.
-1984 : (international) « Honour List »[8] de l' IBBY, catégorie Auteur, pour All the King's Men
-1993 :  Guardian Children's Fiction Prize pour Low Tide
-1997 : Kurt Maschler Award, avec Jonathan Heale, pour Lady Muck</t>
+          <t>Condamnation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il avait été accusé d'agressions en 1973 et 1999, mais ce n'est qu'en 2004 qu'il est jugé à la suite de la plainte d'une femme qu'il avait connue lorsqu'elle avait huit ans. Accusé de viol sur des mineures, il reconnaît des agressions sexuelles sur onze petites filles à la faveur d'une négociation de peine qui abandonne l'incrimination de viol. Il écope d'une peine de deux ans et demi de prison et d'une inscription dans le registre des criminels sexuels.
+</t>
         </is>
       </c>
     </row>
@@ -579,10 +591,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est retrouvé mort de causes naturelles à son domicile en mai 2010. Dans un texte d'hommage, un de ses amis, le critique littéraire Brian Alderson, traite de « vindicatifs ou lâches » les éditeurs qui ont refusé de publier ses œuvres après sa condamnation pour « un comportement violent envers des jeunes fillettes il y a quelque trente ans ou plus dans le passé ». Les éditions Faber and Faber rééditent six de ses romans en impression à la demande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Mayne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Mayne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1957 : Médaille Carnegie pour A Glass Rope
+1978 : (international) « Honor List », de l' IBBY, catégorie Auteur, pour A Year and a Day 
+1983 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne (Italie) pour Périlleuse aventure d'une chatte tigrée, coréalisé avec Nicola Bayley.
+1984 : (international) « Honour List » de l' IBBY, catégorie Auteur, pour All the King's Men
+1993 :  Guardian Children's Fiction Prize pour Low Tide
+1997 : Kurt Maschler Award, avec Jonathan Heale, pour Lady Muck</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Mayne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Mayne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvre parue en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Périlleuse aventure d'une chatte tigrée (The Patchwork cat), avec Nicola Bayley, Paris : Gallimard, 1981
 Histoire d'une souris et d'un œuf (The Mouse and the egg), Paris : Flammarion, 1981
